--- a/Archivos Origen/ReporteFinal/ReporteFinal.xlsx
+++ b/Archivos Origen/ReporteFinal/ReporteFinal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XQ835GT\source\repos\Demo\ReporteFinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e3f28d0bdc4dc07/Documentos/DemoSISS/Archivos Origen/ReporteFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDDC86D-F7AD-4E1F-9FE5-9B23E669A836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{2FE81DE0-1847-4C37-8425-76278BF394E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AC3B1D8E-1DBD-445C-91DE-E052FEC9D916}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0D99F8A8-7E31-44FC-A9C0-2973D025F3C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0D99F8A8-7E31-44FC-A9C0-2973D025F3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -109,7 +101,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -404,22 +396,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A94D07-A62B-4DAF-9294-5D3D01A2FF29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4001"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,12 +434,27 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{5AD03DDA-5133-4652-B735-12489F775B44}"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010028E59967AEA6194F96A8883902E1EAD2" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3506f466aa5c04d465c5c43c8d5a6502">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e356fe65-c95c-4903-930e-2f989d172e03" xmlns:ns4="35410de1-fa75-40f3-901d-75599929c7bd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7eef5d787e73aeebfac4f4ad827faa24" ns3:_="" ns4:_="">
     <xsd:import namespace="e356fe65-c95c-4903-930e-2f989d172e03"/>
@@ -648,22 +657,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98EA86A2-D81E-4BA0-959A-8C05E39F5A91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CC5F10B-CEDE-4EB3-8FA6-773D879C1D3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B1F203-A23D-4693-963A-3DE6A5CFD039}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -680,21 +691,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CC5F10B-CEDE-4EB3-8FA6-773D879C1D3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98EA86A2-D81E-4BA0-959A-8C05E39F5A91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Archivos Origen/ReporteFinal/ReporteFinal.xlsx
+++ b/Archivos Origen/ReporteFinal/ReporteFinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e3f28d0bdc4dc07/Documentos/DemoSISS/Archivos Origen/ReporteFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{2FE81DE0-1847-4C37-8425-76278BF394E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AC3B1D8E-1DBD-445C-91DE-E052FEC9D916}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="14_{2FE81DE0-1847-4C37-8425-76278BF394E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{248449A7-1D59-4B0F-A401-5E5A6E40196E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0D99F8A8-7E31-44FC-A9C0-2973D025F3C7}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4001"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,7 +410,7 @@
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -440,21 +440,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010028E59967AEA6194F96A8883902E1EAD2" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3506f466aa5c04d465c5c43c8d5a6502">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e356fe65-c95c-4903-930e-2f989d172e03" xmlns:ns4="35410de1-fa75-40f3-901d-75599929c7bd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7eef5d787e73aeebfac4f4ad827faa24" ns3:_="" ns4:_="">
     <xsd:import namespace="e356fe65-c95c-4903-930e-2f989d172e03"/>
@@ -657,24 +642,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98EA86A2-D81E-4BA0-959A-8C05E39F5A91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CC5F10B-CEDE-4EB3-8FA6-773D879C1D3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B1F203-A23D-4693-963A-3DE6A5CFD039}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -691,4 +674,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CC5F10B-CEDE-4EB3-8FA6-773D879C1D3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98EA86A2-D81E-4BA0-959A-8C05E39F5A91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>